--- a/PEWI Budgets 2024$ - 2025.xlsx
+++ b/PEWI Budgets 2024$ - 2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my_pewi\pewi3.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9CD7F2C-CDA0-4FDB-A218-202B46BA3523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D312D6-6C03-42AA-8331-289244345543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{2A59C1DF-064D-264D-B5F5-440AD859B569}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" firstSheet="7" activeTab="7" xr2:uid="{2A59C1DF-064D-264D-B5F5-440AD859B569}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions &amp; summary data" sheetId="19" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1727" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1735" uniqueCount="556">
   <si>
     <t>Ag Decision Maker -- Iowa State University Extension and Outreach</t>
   </si>
@@ -2124,6 +2124,9 @@
   </si>
   <si>
     <t>1/10 of PEWI Total acres * (see note below)</t>
+  </si>
+  <si>
+    <t>Establishment</t>
   </si>
 </sst>
 </file>
@@ -3177,7 +3180,7 @@
     <xf numFmtId="7" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="514">
+  <cellXfs count="515">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -4265,18 +4268,18 @@
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4329,10 +4332,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4340,6 +4343,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -5189,7 +5193,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE1E20D6-F156-C447-BE27-5EDB562A8E09}">
   <dimension ref="B2:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -9683,820 +9687,850 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB919C84-8B9C-C941-BB07-F157A032DE5B}">
-  <dimension ref="A2:R51"/>
+  <dimension ref="A2:S51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:P3"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="4" max="4" width="28.875" customWidth="1"/>
+    <col min="5" max="5" width="28.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" ht="16.5" thickBot="1">
-      <c r="O2" s="486" t="s">
+    <row r="2" spans="1:17" ht="16.5" thickBot="1">
+      <c r="P2" s="486" t="s">
         <v>550</v>
       </c>
-      <c r="P2" s="486"/>
-    </row>
-    <row r="3" spans="1:16" ht="16.5" thickBot="1">
-      <c r="C3" s="178" t="s">
+      <c r="Q2" s="486"/>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" thickBot="1">
+      <c r="D3" s="178" t="s">
         <v>254</v>
       </c>
-      <c r="O3" s="487"/>
       <c r="P3" s="487"/>
-    </row>
-    <row r="4" spans="1:16" ht="24" thickBot="1">
+      <c r="Q3" s="487"/>
+    </row>
+    <row r="4" spans="1:17" ht="24" thickBot="1">
       <c r="B4" s="179" t="s">
         <v>255</v>
       </c>
-      <c r="C4" s="180">
+      <c r="C4" s="179"/>
+      <c r="D4" s="180">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="16.5" thickBot="1">
+    <row r="5" spans="1:17" ht="16.5" thickBot="1">
       <c r="B5" s="181" t="s">
         <v>256</v>
       </c>
-      <c r="C5" s="180">
+      <c r="C5" s="181"/>
+      <c r="D5" s="180">
         <v>0.08</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
-      <c r="C6" s="510" t="s">
+    <row r="6" spans="1:17">
+      <c r="D6" s="511" t="s">
         <v>257</v>
       </c>
-      <c r="D6" s="510"/>
-      <c r="H6" t="s">
+      <c r="E6" s="511"/>
+      <c r="I6" t="s">
         <v>258</v>
       </c>
-      <c r="J6" s="182">
-        <f>((C5*(1+C5)^C4)/((1+C5)^C4-1))</f>
+      <c r="K6" s="182">
+        <f>((D5*(1+D5)^D4)/((1+D5)^D4-1))</f>
         <v>0.14902948869707539</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
-      <c r="C7" t="s">
+    <row r="7" spans="1:17">
+      <c r="D7" t="s">
         <v>260</v>
       </c>
-      <c r="H7" s="183"/>
-      <c r="I7" s="173"/>
-      <c r="J7" t="s">
+      <c r="I7" s="183"/>
+      <c r="J7" s="173"/>
+      <c r="K7" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="47.25">
-      <c r="C8" s="184" t="s">
+    <row r="8" spans="1:17" ht="47.25">
+      <c r="D8" s="184" t="s">
         <v>262</v>
       </c>
-      <c r="D8" s="184"/>
-      <c r="E8" s="185" t="s">
+      <c r="E8" s="184"/>
+      <c r="F8" s="185" t="s">
         <v>263</v>
       </c>
-      <c r="F8" s="186" t="s">
+      <c r="G8" s="186" t="s">
         <v>264</v>
       </c>
-      <c r="G8" s="187" t="s">
+      <c r="H8" s="187" t="s">
         <v>265</v>
       </c>
-      <c r="H8" s="186" t="s">
+      <c r="I8" s="186" t="s">
         <v>266</v>
       </c>
-      <c r="I8" s="188" t="s">
+      <c r="J8" s="188" t="s">
         <v>267</v>
       </c>
-      <c r="J8" s="187" t="s">
+      <c r="K8" s="187" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
-      <c r="C9" s="158" t="s">
+    <row r="9" spans="1:17">
+      <c r="C9" t="s">
+        <v>555</v>
+      </c>
+      <c r="D9" s="158" t="s">
         <v>269</v>
       </c>
-      <c r="D9" s="158"/>
-      <c r="E9" s="437">
-        <v>0</v>
-      </c>
-      <c r="F9" s="439">
+      <c r="E9" s="158"/>
+      <c r="F9" s="437">
+        <v>0</v>
+      </c>
+      <c r="G9" s="439">
         <v>1</v>
       </c>
-      <c r="G9" s="440">
-        <f>F9*E9</f>
-        <v>0</v>
-      </c>
-      <c r="H9" s="441">
-        <v>0</v>
-      </c>
-      <c r="I9" s="440">
-        <f>G9/(1+$C$5)^H9</f>
+      <c r="H9" s="440">
+        <f>G9*F9</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="441">
         <v>0</v>
       </c>
       <c r="J9" s="440">
-        <f>I9*$J$6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="C10" s="158" t="s">
+        <f>H9/(1+$D$5)^I9</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="440">
+        <f>J9*$K$6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="C10" t="s">
+        <v>555</v>
+      </c>
+      <c r="D10" s="158" t="s">
         <v>270</v>
       </c>
-      <c r="D10" s="158"/>
-      <c r="E10" s="437">
+      <c r="E10" s="158"/>
+      <c r="F10" s="437">
         <v>17.399999999999999</v>
       </c>
-      <c r="F10" s="439">
-        <v>0</v>
-      </c>
-      <c r="G10" s="440">
-        <f t="shared" ref="G10:G25" si="0">F10*E10</f>
-        <v>0</v>
-      </c>
-      <c r="H10" s="441">
-        <v>0</v>
-      </c>
-      <c r="I10" s="440">
-        <f t="shared" ref="I10:I18" si="1">G10/(1+$C$5)^H10</f>
+      <c r="G10" s="439">
+        <v>0</v>
+      </c>
+      <c r="H10" s="440">
+        <f t="shared" ref="H10:H25" si="0">G10*F10</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="441">
         <v>0</v>
       </c>
       <c r="J10" s="440">
-        <f t="shared" ref="J10:J25" si="2">I10*$J$6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="C11" s="158" t="s">
+        <f t="shared" ref="J10:J18" si="1">H10/(1+$D$5)^I10</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="440">
+        <f t="shared" ref="K10:K25" si="2">J10*$K$6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="C11" t="s">
+        <v>555</v>
+      </c>
+      <c r="D11" s="158" t="s">
         <v>271</v>
       </c>
-      <c r="D11" s="158"/>
-      <c r="E11" s="437">
+      <c r="E11" s="158"/>
+      <c r="F11" s="437">
         <v>6</v>
       </c>
-      <c r="F11" s="439">
+      <c r="G11" s="439">
         <v>1</v>
       </c>
-      <c r="G11" s="440">
-        <f>F11*E11</f>
+      <c r="H11" s="440">
+        <f>G11*F11</f>
         <v>6</v>
       </c>
-      <c r="H11" s="441">
-        <v>0</v>
-      </c>
-      <c r="I11" s="440">
+      <c r="I11" s="441">
+        <v>0</v>
+      </c>
+      <c r="J11" s="440">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="J11" s="440">
+      <c r="K11" s="440">
         <f t="shared" si="2"/>
         <v>0.89417693218245231</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
-      <c r="C12" s="158" t="s">
+    <row r="12" spans="1:17">
+      <c r="C12" t="s">
+        <v>555</v>
+      </c>
+      <c r="D12" s="158" t="s">
         <v>272</v>
       </c>
-      <c r="D12" s="158"/>
-      <c r="E12" s="437">
+      <c r="E12" s="158"/>
+      <c r="F12" s="437">
         <v>15</v>
       </c>
-      <c r="F12" s="439">
+      <c r="G12" s="439">
         <v>1</v>
       </c>
-      <c r="G12" s="440">
-        <f>F12*E12</f>
+      <c r="H12" s="440">
+        <f>G12*F12</f>
         <v>15</v>
       </c>
-      <c r="H12" s="441">
-        <v>0</v>
-      </c>
-      <c r="I12" s="440">
+      <c r="I12" s="441">
+        <v>0</v>
+      </c>
+      <c r="J12" s="440">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="J12" s="440">
+      <c r="K12" s="440">
         <f t="shared" si="2"/>
         <v>2.2354423304561308</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
-      <c r="C13" s="158" t="s">
+    <row r="13" spans="1:17">
+      <c r="C13" t="s">
+        <v>555</v>
+      </c>
+      <c r="D13" s="158" t="s">
         <v>273</v>
       </c>
-      <c r="D13" s="158"/>
-      <c r="E13" s="437">
+      <c r="E13" s="158"/>
+      <c r="F13" s="437">
         <v>7</v>
       </c>
-      <c r="F13" s="439">
+      <c r="G13" s="439">
         <v>1</v>
       </c>
-      <c r="G13" s="440">
+      <c r="H13" s="440">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="H13" s="441">
-        <v>0</v>
-      </c>
-      <c r="I13" s="440">
+      <c r="I13" s="441">
+        <v>0</v>
+      </c>
+      <c r="J13" s="440">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="J13" s="440">
+      <c r="K13" s="440">
         <f t="shared" si="2"/>
         <v>1.0432064208795278</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
-      <c r="C14" s="158" t="s">
+    <row r="14" spans="1:17">
+      <c r="C14" t="s">
+        <v>555</v>
+      </c>
+      <c r="D14" s="158" t="s">
         <v>274</v>
       </c>
-      <c r="D14" s="158"/>
-      <c r="E14" s="437">
+      <c r="E14" s="158"/>
+      <c r="F14" s="437">
         <v>25</v>
       </c>
-      <c r="F14" s="439">
+      <c r="G14" s="439">
         <v>1</v>
       </c>
-      <c r="G14" s="440">
+      <c r="H14" s="440">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="H14" s="441">
-        <v>0</v>
-      </c>
-      <c r="I14" s="440">
+      <c r="I14" s="441">
+        <v>0</v>
+      </c>
+      <c r="J14" s="440">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="J14" s="440">
+      <c r="K14" s="440">
         <f t="shared" si="2"/>
         <v>3.7257372174268846</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
-      <c r="C15" s="158" t="s">
+    <row r="15" spans="1:17">
+      <c r="C15" t="s">
+        <v>555</v>
+      </c>
+      <c r="D15" s="158" t="s">
         <v>275</v>
       </c>
-      <c r="D15" s="158"/>
-      <c r="E15" s="437">
+      <c r="E15" s="158"/>
+      <c r="F15" s="437">
         <v>162</v>
       </c>
-      <c r="F15" s="439">
+      <c r="G15" s="439">
         <v>1</v>
       </c>
-      <c r="G15" s="440">
+      <c r="H15" s="440">
         <f t="shared" si="0"/>
         <v>162</v>
       </c>
-      <c r="H15" s="441">
-        <v>0</v>
-      </c>
-      <c r="I15" s="440">
+      <c r="I15" s="441">
+        <v>0</v>
+      </c>
+      <c r="J15" s="440">
         <f t="shared" si="1"/>
         <v>162</v>
       </c>
-      <c r="J15" s="440">
+      <c r="K15" s="440">
         <f t="shared" si="2"/>
         <v>24.142777168926212</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:17">
       <c r="A16" t="s">
         <v>276</v>
       </c>
-      <c r="C16" s="158" t="s">
+      <c r="C16" t="s">
+        <v>555</v>
+      </c>
+      <c r="D16" s="158" t="s">
         <v>277</v>
       </c>
-      <c r="D16" s="158"/>
-      <c r="E16" s="437">
+      <c r="E16" s="158"/>
+      <c r="F16" s="437">
         <v>25</v>
       </c>
-      <c r="F16" s="439">
+      <c r="G16" s="439">
         <v>1</v>
       </c>
-      <c r="G16" s="440">
+      <c r="H16" s="440">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="H16" s="441">
-        <v>0</v>
-      </c>
-      <c r="I16" s="440">
+      <c r="I16" s="441">
+        <v>0</v>
+      </c>
+      <c r="J16" s="440">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="J16" s="440">
+      <c r="K16" s="440">
         <f t="shared" si="2"/>
         <v>3.7257372174268846</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:16">
       <c r="A17" s="189">
         <v>14</v>
       </c>
       <c r="B17" s="182" t="s">
         <v>186</v>
       </c>
-      <c r="C17" s="158" t="s">
+      <c r="C17" s="514"/>
+      <c r="D17" s="158" t="s">
         <v>278</v>
       </c>
-      <c r="D17" s="158"/>
-      <c r="E17" s="437">
+      <c r="E17" s="158"/>
+      <c r="F17" s="437">
         <f>A17*3</f>
         <v>42</v>
       </c>
-      <c r="F17" s="439">
+      <c r="G17" s="439">
         <v>1</v>
       </c>
-      <c r="G17" s="440">
+      <c r="H17" s="440">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="H17" s="441">
+      <c r="I17" s="441">
         <v>1</v>
       </c>
-      <c r="I17" s="440">
+      <c r="J17" s="440">
         <f t="shared" si="1"/>
         <v>38.888888888888886</v>
       </c>
-      <c r="J17" s="440">
+      <c r="K17" s="440">
         <f t="shared" si="2"/>
         <v>5.7955912271084866</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:16">
       <c r="A18" s="189">
         <v>8</v>
       </c>
       <c r="B18" s="182" t="s">
         <v>186</v>
       </c>
-      <c r="C18" s="158" t="s">
+      <c r="C18" s="514"/>
+      <c r="D18" s="158" t="s">
         <v>279</v>
       </c>
-      <c r="D18" s="158"/>
-      <c r="E18" s="437">
+      <c r="E18" s="158"/>
+      <c r="F18" s="437">
         <f>A17+A18+A19+A20</f>
         <v>43</v>
       </c>
-      <c r="F18" s="439">
+      <c r="G18" s="439">
         <v>1</v>
       </c>
-      <c r="G18" s="440">
+      <c r="H18" s="440">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="H18" s="441">
+      <c r="I18" s="441">
         <v>2</v>
       </c>
-      <c r="I18" s="440">
+      <c r="J18" s="440">
         <f t="shared" si="1"/>
         <v>36.865569272976678</v>
       </c>
-      <c r="J18" s="440">
+      <c r="K18" s="440">
         <f t="shared" si="2"/>
         <v>5.4940569392783276</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:16">
       <c r="A19" s="189">
         <v>16</v>
       </c>
       <c r="B19" s="182" t="s">
         <v>186</v>
       </c>
-      <c r="C19" s="191" t="s">
+      <c r="C19" s="195"/>
+      <c r="D19" s="191" t="s">
         <v>280</v>
       </c>
-      <c r="D19" s="191"/>
-      <c r="E19" s="192"/>
-      <c r="F19" s="193"/>
-      <c r="G19" s="194"/>
-      <c r="H19" s="195"/>
-      <c r="I19" s="194"/>
-      <c r="J19" s="173">
-        <f>I19*$J$6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="E19" s="191"/>
+      <c r="F19" s="192"/>
+      <c r="G19" s="193"/>
+      <c r="H19" s="194"/>
+      <c r="I19" s="195"/>
+      <c r="J19" s="194"/>
+      <c r="K19" s="173">
+        <f>J19*$K$6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="189">
         <v>5</v>
       </c>
       <c r="B20" s="182" t="s">
         <v>281</v>
       </c>
-      <c r="C20" s="158" t="s">
+      <c r="C20" s="514"/>
+      <c r="D20" s="158" t="s">
         <v>282</v>
       </c>
-      <c r="D20" s="158"/>
-      <c r="E20" s="437">
+      <c r="E20" s="158"/>
+      <c r="F20" s="437">
         <v>120</v>
       </c>
-      <c r="F20" s="442">
-        <v>0</v>
-      </c>
-      <c r="G20" s="440">
+      <c r="G20" s="442">
+        <v>0</v>
+      </c>
+      <c r="H20" s="440">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H20" s="441">
+      <c r="I20" s="441">
         <v>3</v>
       </c>
-      <c r="I20" s="440">
-        <f>G20/(1+$C$5)^3</f>
-        <v>0</v>
-      </c>
       <c r="J20" s="440">
+        <f>H20/(1+$D$5)^3</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="440">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K20" s="173">
-        <f t="shared" ref="K20:L20" si="3">I20/(1+$C$5)^3</f>
-        <v>0</v>
-      </c>
       <c r="L20" s="173">
+        <f t="shared" ref="L20:M20" si="3">J20/(1+$D$5)^3</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="173">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
-      <c r="C21" s="158" t="s">
+    <row r="21" spans="1:16">
+      <c r="D21" s="158" t="s">
         <v>283</v>
       </c>
-      <c r="D21" s="158"/>
-      <c r="E21" s="437">
+      <c r="E21" s="158"/>
+      <c r="F21" s="437">
         <v>29</v>
       </c>
-      <c r="F21" s="442">
-        <v>0</v>
-      </c>
-      <c r="G21" s="440">
+      <c r="G21" s="442">
+        <v>0</v>
+      </c>
+      <c r="H21" s="440">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H21" s="441" t="s">
+      <c r="I21" s="441" t="s">
         <v>284</v>
       </c>
-      <c r="I21" s="443">
-        <f>G21*(((1+$C$5)^$C$4-1)/(((1+$C$5)^3-1)*(1+$C$5)^$C$4))</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="440">
+      <c r="J21" s="443">
+        <f>H21*(((1+$D$5)^$D$4-1)/(((1+$D$5)^3-1)*(1+$D$5)^$D$4))</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="440">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
-      <c r="C22" s="158" t="s">
+    <row r="22" spans="1:16">
+      <c r="D22" s="158" t="s">
         <v>285</v>
       </c>
-      <c r="D22" s="197"/>
-      <c r="E22" s="438">
+      <c r="E22" s="197"/>
+      <c r="F22" s="438">
         <v>32</v>
       </c>
-      <c r="F22" s="444">
+      <c r="G22" s="444">
         <v>1</v>
       </c>
-      <c r="G22" s="443">
+      <c r="H22" s="443">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="H22" s="445" t="s">
+      <c r="I22" s="445" t="s">
         <v>286</v>
       </c>
-      <c r="I22" s="443">
-        <f>G22*(((1+$C$5)^$C$4-1)/(((1+$C$5)^3-1)*(1+$C$5)^$C$4))</f>
+      <c r="J22" s="443">
+        <f>H22*(((1+$D$5)^$D$4-1)/(((1+$D$5)^3-1)*(1+$D$5)^$D$4))</f>
         <v>66.141758491290716</v>
       </c>
-      <c r="J22" s="440">
+      <c r="K22" s="440">
         <f t="shared" si="2"/>
         <v>9.8570724494824997</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
-      <c r="C23" s="184" t="s">
+    <row r="23" spans="1:16">
+      <c r="D23" s="184" t="s">
         <v>287</v>
       </c>
-      <c r="D23" s="199"/>
-      <c r="E23" s="192"/>
-      <c r="F23" s="200"/>
-      <c r="G23" s="194"/>
-      <c r="H23" s="195"/>
-      <c r="I23" s="194"/>
-      <c r="J23" s="173">
+      <c r="E23" s="199"/>
+      <c r="F23" s="192"/>
+      <c r="G23" s="200"/>
+      <c r="H23" s="194"/>
+      <c r="I23" s="195"/>
+      <c r="J23" s="194"/>
+      <c r="K23" s="173">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
-      <c r="C24" s="158" t="s">
+    <row r="24" spans="1:16">
+      <c r="D24" s="158" t="s">
         <v>288</v>
       </c>
-      <c r="D24" s="158"/>
-      <c r="E24" s="437">
+      <c r="E24" s="158"/>
+      <c r="F24" s="437">
         <v>139</v>
       </c>
-      <c r="F24" s="442">
+      <c r="G24" s="442">
         <v>1</v>
       </c>
-      <c r="G24" s="440">
+      <c r="H24" s="440">
         <f t="shared" si="0"/>
         <v>139</v>
       </c>
-      <c r="H24" s="446" t="s">
+      <c r="I24" s="446" t="s">
         <v>185</v>
       </c>
-      <c r="I24" s="440">
-        <f>(E24*((((1+$C$5)^C4)-1))/(($C$5)*(1+$C$5)^C4))</f>
+      <c r="J24" s="440">
+        <f>(F24*((((1+$D$5)^D4)-1))/(($D$5)*(1+$D$5)^D4))</f>
         <v>932.70131445286108</v>
       </c>
-      <c r="J24" s="440">
+      <c r="K24" s="440">
         <f t="shared" si="2"/>
         <v>139.00000000000003</v>
       </c>
-      <c r="M24" s="173"/>
-    </row>
-    <row r="25" spans="1:15" ht="32.25" thickBot="1">
-      <c r="C25" s="197" t="s">
+      <c r="N24" s="173"/>
+    </row>
+    <row r="25" spans="1:16" ht="32.25" thickBot="1">
+      <c r="D25" s="197" t="s">
         <v>289</v>
       </c>
-      <c r="D25" s="197"/>
-      <c r="E25" s="438">
-        <f>(E13+E9+E14+E15+E17+E16+E18)*0.03</f>
+      <c r="E25" s="197"/>
+      <c r="F25" s="438">
+        <f>(F13+F9+F14+F15+F17+F16+F18)*0.03</f>
         <v>9.1199999999999992</v>
       </c>
-      <c r="F25" s="444">
+      <c r="G25" s="444">
         <v>1</v>
       </c>
-      <c r="G25" s="443">
+      <c r="H25" s="443">
         <f t="shared" si="0"/>
         <v>9.1199999999999992</v>
       </c>
-      <c r="H25" s="447" t="s">
+      <c r="I25" s="447" t="s">
         <v>185</v>
       </c>
-      <c r="I25" s="440">
-        <f>(E25*((((1+$C$5)^C4)-1))/(($C$5)*(1+$C$5)^C4))</f>
+      <c r="J25" s="440">
+        <f>(F25*((((1+$D$5)^D4)-1))/(($D$5)*(1+$D$5)^D4))</f>
         <v>61.195942358345988</v>
       </c>
-      <c r="J25" s="440">
+      <c r="K25" s="440">
         <f t="shared" si="2"/>
         <v>9.120000000000001</v>
       </c>
-      <c r="K25" s="143" t="s">
+      <c r="L25" s="143" t="s">
         <v>475</v>
       </c>
-      <c r="L25" t="s">
+      <c r="M25" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="16.5" thickBot="1">
-      <c r="H26" t="s">
+    <row r="26" spans="1:16" ht="16.5" thickBot="1">
+      <c r="I26" t="s">
         <v>290</v>
       </c>
-      <c r="J26" s="448">
-        <f>SUM(J9:J25)</f>
+      <c r="K26" s="448">
+        <f>SUM(K9:K25)</f>
         <v>205.03379790316745</v>
       </c>
-      <c r="K26" s="176"/>
-      <c r="L26" s="242">
-        <f>J26*K26</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="16.5" thickBot="1">
-      <c r="H27" t="s">
+      <c r="L26" s="176"/>
+      <c r="M26" s="242">
+        <f>K26*L26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="16.5" thickBot="1">
+      <c r="I27" t="s">
         <v>291</v>
       </c>
-      <c r="J27" s="391">
-        <f>J26*2.47</f>
+      <c r="K27" s="391">
+        <f>K26*2.47</f>
         <v>506.43348082082366</v>
       </c>
-      <c r="K27" s="449"/>
-      <c r="L27" s="242">
-        <f>J27*K27</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
-      <c r="J28" s="173"/>
-    </row>
-    <row r="29" spans="1:15">
-      <c r="C29" t="s">
+      <c r="L27" s="449"/>
+      <c r="M27" s="242">
+        <f>K27*L27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="K28" s="173"/>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="D29" t="s">
         <v>292</v>
       </c>
-      <c r="J29" s="173"/>
-    </row>
-    <row r="30" spans="1:15">
-      <c r="C30" t="s">
+      <c r="K29" s="173"/>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="D30" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
-      <c r="C31" s="511" t="s">
+    <row r="31" spans="1:16">
+      <c r="D31" s="510" t="s">
         <v>294</v>
       </c>
-      <c r="D31" s="511"/>
-      <c r="E31" s="511"/>
-      <c r="F31" s="511"/>
-      <c r="G31" s="511"/>
-      <c r="H31" s="511"/>
-      <c r="I31" s="511"/>
-      <c r="J31" s="511"/>
-      <c r="K31" s="511"/>
-      <c r="L31" s="511"/>
-      <c r="M31" s="511"/>
-      <c r="N31" s="511"/>
-      <c r="O31" s="511"/>
-    </row>
-    <row r="32" spans="1:15">
-      <c r="C32" s="511"/>
-      <c r="D32" s="511"/>
-      <c r="E32" s="511"/>
-      <c r="F32" s="511"/>
-      <c r="G32" s="511"/>
-      <c r="H32" s="511"/>
-      <c r="I32" s="511"/>
-      <c r="J32" s="511"/>
-      <c r="K32" s="511"/>
-      <c r="L32" s="511"/>
-      <c r="M32" s="511"/>
-      <c r="N32" s="511"/>
-      <c r="O32" s="511"/>
-    </row>
-    <row r="33" spans="3:18">
-      <c r="C33" t="s">
+      <c r="E31" s="510"/>
+      <c r="F31" s="510"/>
+      <c r="G31" s="510"/>
+      <c r="H31" s="510"/>
+      <c r="I31" s="510"/>
+      <c r="J31" s="510"/>
+      <c r="K31" s="510"/>
+      <c r="L31" s="510"/>
+      <c r="M31" s="510"/>
+      <c r="N31" s="510"/>
+      <c r="O31" s="510"/>
+      <c r="P31" s="510"/>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="D32" s="510"/>
+      <c r="E32" s="510"/>
+      <c r="F32" s="510"/>
+      <c r="G32" s="510"/>
+      <c r="H32" s="510"/>
+      <c r="I32" s="510"/>
+      <c r="J32" s="510"/>
+      <c r="K32" s="510"/>
+      <c r="L32" s="510"/>
+      <c r="M32" s="510"/>
+      <c r="N32" s="510"/>
+      <c r="O32" s="510"/>
+      <c r="P32" s="510"/>
+    </row>
+    <row r="33" spans="4:19">
+      <c r="D33" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="34" spans="3:18">
-      <c r="C34" s="511" t="s">
+    <row r="34" spans="4:19">
+      <c r="D34" s="510" t="s">
         <v>295</v>
       </c>
-      <c r="D34" s="511"/>
-      <c r="E34" s="511"/>
-      <c r="F34" s="511"/>
-      <c r="G34" s="511"/>
-      <c r="H34" s="511"/>
-      <c r="I34" s="511"/>
-      <c r="J34" s="511"/>
-      <c r="K34" s="511"/>
-      <c r="L34" s="511"/>
-      <c r="M34" s="511"/>
-      <c r="N34" s="511"/>
-      <c r="O34" s="511"/>
-      <c r="P34" s="511"/>
-      <c r="Q34" s="511"/>
-      <c r="R34" s="511"/>
-    </row>
-    <row r="35" spans="3:18">
-      <c r="C35" s="511"/>
-      <c r="D35" s="511"/>
-      <c r="E35" s="511"/>
-      <c r="F35" s="511"/>
-      <c r="G35" s="511"/>
-      <c r="H35" s="511"/>
-      <c r="I35" s="511"/>
-      <c r="J35" s="511"/>
-      <c r="K35" s="511"/>
-      <c r="L35" s="511"/>
-      <c r="M35" s="511"/>
-      <c r="N35" s="511"/>
-      <c r="O35" s="511"/>
-      <c r="P35" s="511"/>
-      <c r="Q35" s="511"/>
-      <c r="R35" s="511"/>
-    </row>
-    <row r="36" spans="3:18">
-      <c r="C36" s="511" t="s">
+      <c r="E34" s="510"/>
+      <c r="F34" s="510"/>
+      <c r="G34" s="510"/>
+      <c r="H34" s="510"/>
+      <c r="I34" s="510"/>
+      <c r="J34" s="510"/>
+      <c r="K34" s="510"/>
+      <c r="L34" s="510"/>
+      <c r="M34" s="510"/>
+      <c r="N34" s="510"/>
+      <c r="O34" s="510"/>
+      <c r="P34" s="510"/>
+      <c r="Q34" s="510"/>
+      <c r="R34" s="510"/>
+      <c r="S34" s="510"/>
+    </row>
+    <row r="35" spans="4:19">
+      <c r="D35" s="510"/>
+      <c r="E35" s="510"/>
+      <c r="F35" s="510"/>
+      <c r="G35" s="510"/>
+      <c r="H35" s="510"/>
+      <c r="I35" s="510"/>
+      <c r="J35" s="510"/>
+      <c r="K35" s="510"/>
+      <c r="L35" s="510"/>
+      <c r="M35" s="510"/>
+      <c r="N35" s="510"/>
+      <c r="O35" s="510"/>
+      <c r="P35" s="510"/>
+      <c r="Q35" s="510"/>
+      <c r="R35" s="510"/>
+      <c r="S35" s="510"/>
+    </row>
+    <row r="36" spans="4:19">
+      <c r="D36" s="510" t="s">
         <v>296</v>
       </c>
-      <c r="D36" s="511"/>
-      <c r="E36" s="511"/>
-      <c r="F36" s="511"/>
-      <c r="G36" s="511"/>
-      <c r="H36" s="511"/>
-      <c r="I36" s="511"/>
-      <c r="J36" s="511"/>
-      <c r="K36" s="511"/>
-      <c r="L36" s="511"/>
-      <c r="M36" s="511"/>
-      <c r="N36" s="511"/>
-      <c r="O36" s="511"/>
-    </row>
-    <row r="37" spans="3:18">
-      <c r="C37" s="511"/>
-      <c r="D37" s="511"/>
-      <c r="E37" s="511"/>
-      <c r="F37" s="511"/>
-      <c r="G37" s="511"/>
-      <c r="H37" s="511"/>
-      <c r="I37" s="511"/>
-      <c r="J37" s="511"/>
-      <c r="K37" s="511"/>
-      <c r="L37" s="511"/>
-      <c r="M37" s="511"/>
-      <c r="N37" s="511"/>
-      <c r="O37" s="511"/>
-    </row>
-    <row r="38" spans="3:18">
-      <c r="C38" s="511" t="s">
+      <c r="E36" s="510"/>
+      <c r="F36" s="510"/>
+      <c r="G36" s="510"/>
+      <c r="H36" s="510"/>
+      <c r="I36" s="510"/>
+      <c r="J36" s="510"/>
+      <c r="K36" s="510"/>
+      <c r="L36" s="510"/>
+      <c r="M36" s="510"/>
+      <c r="N36" s="510"/>
+      <c r="O36" s="510"/>
+      <c r="P36" s="510"/>
+    </row>
+    <row r="37" spans="4:19">
+      <c r="D37" s="510"/>
+      <c r="E37" s="510"/>
+      <c r="F37" s="510"/>
+      <c r="G37" s="510"/>
+      <c r="H37" s="510"/>
+      <c r="I37" s="510"/>
+      <c r="J37" s="510"/>
+      <c r="K37" s="510"/>
+      <c r="L37" s="510"/>
+      <c r="M37" s="510"/>
+      <c r="N37" s="510"/>
+      <c r="O37" s="510"/>
+      <c r="P37" s="510"/>
+    </row>
+    <row r="38" spans="4:19">
+      <c r="D38" s="510" t="s">
         <v>297</v>
       </c>
-      <c r="D38" s="511"/>
-      <c r="E38" s="511"/>
-      <c r="F38" s="511"/>
-      <c r="G38" s="511"/>
-      <c r="H38" s="511"/>
-      <c r="I38" s="511"/>
-      <c r="J38" s="511"/>
-      <c r="K38" s="511"/>
-      <c r="L38" s="511"/>
-      <c r="M38" s="511"/>
-      <c r="N38" s="511"/>
-      <c r="O38" s="511"/>
-    </row>
-    <row r="39" spans="3:18">
-      <c r="C39" s="511"/>
-      <c r="D39" s="511"/>
-      <c r="E39" s="511"/>
-      <c r="F39" s="511"/>
-      <c r="G39" s="511"/>
-      <c r="H39" s="511"/>
-      <c r="I39" s="511"/>
-      <c r="J39" s="511"/>
-      <c r="K39" s="511"/>
-      <c r="L39" s="511"/>
-      <c r="M39" s="511"/>
-      <c r="N39" s="511"/>
-      <c r="O39" s="511"/>
-    </row>
-    <row r="40" spans="3:18">
-      <c r="C40" s="511"/>
-      <c r="D40" s="511"/>
-      <c r="E40" s="511"/>
-      <c r="F40" s="511"/>
-      <c r="G40" s="511"/>
-      <c r="H40" s="511"/>
-      <c r="I40" s="511"/>
-      <c r="J40" s="511"/>
-      <c r="K40" s="511"/>
-      <c r="L40" s="511"/>
-      <c r="M40" s="511"/>
-      <c r="N40" s="511"/>
-      <c r="O40" s="511"/>
-    </row>
-    <row r="41" spans="3:18">
-      <c r="C41" s="511"/>
-      <c r="D41" s="511"/>
-      <c r="E41" s="511"/>
-      <c r="F41" s="511"/>
-      <c r="G41" s="511"/>
-      <c r="H41" s="511"/>
-      <c r="I41" s="511"/>
-      <c r="J41" s="511"/>
-      <c r="K41" s="511"/>
-      <c r="L41" s="511"/>
-      <c r="M41" s="511"/>
-      <c r="N41" s="511"/>
-      <c r="O41" s="511"/>
-    </row>
-    <row r="42" spans="3:18">
-      <c r="C42" s="511"/>
-      <c r="D42" s="511"/>
-      <c r="E42" s="511"/>
-      <c r="F42" s="511"/>
-      <c r="G42" s="511"/>
-      <c r="H42" s="511"/>
-      <c r="I42" s="511"/>
-      <c r="J42" s="511"/>
-      <c r="K42" s="511"/>
-      <c r="L42" s="511"/>
-      <c r="M42" s="511"/>
-      <c r="N42" s="511"/>
-      <c r="O42" s="511"/>
-    </row>
-    <row r="43" spans="3:18">
-      <c r="C43" t="s">
+      <c r="E38" s="510"/>
+      <c r="F38" s="510"/>
+      <c r="G38" s="510"/>
+      <c r="H38" s="510"/>
+      <c r="I38" s="510"/>
+      <c r="J38" s="510"/>
+      <c r="K38" s="510"/>
+      <c r="L38" s="510"/>
+      <c r="M38" s="510"/>
+      <c r="N38" s="510"/>
+      <c r="O38" s="510"/>
+      <c r="P38" s="510"/>
+    </row>
+    <row r="39" spans="4:19">
+      <c r="D39" s="510"/>
+      <c r="E39" s="510"/>
+      <c r="F39" s="510"/>
+      <c r="G39" s="510"/>
+      <c r="H39" s="510"/>
+      <c r="I39" s="510"/>
+      <c r="J39" s="510"/>
+      <c r="K39" s="510"/>
+      <c r="L39" s="510"/>
+      <c r="M39" s="510"/>
+      <c r="N39" s="510"/>
+      <c r="O39" s="510"/>
+      <c r="P39" s="510"/>
+    </row>
+    <row r="40" spans="4:19">
+      <c r="D40" s="510"/>
+      <c r="E40" s="510"/>
+      <c r="F40" s="510"/>
+      <c r="G40" s="510"/>
+      <c r="H40" s="510"/>
+      <c r="I40" s="510"/>
+      <c r="J40" s="510"/>
+      <c r="K40" s="510"/>
+      <c r="L40" s="510"/>
+      <c r="M40" s="510"/>
+      <c r="N40" s="510"/>
+      <c r="O40" s="510"/>
+      <c r="P40" s="510"/>
+    </row>
+    <row r="41" spans="4:19">
+      <c r="D41" s="510"/>
+      <c r="E41" s="510"/>
+      <c r="F41" s="510"/>
+      <c r="G41" s="510"/>
+      <c r="H41" s="510"/>
+      <c r="I41" s="510"/>
+      <c r="J41" s="510"/>
+      <c r="K41" s="510"/>
+      <c r="L41" s="510"/>
+      <c r="M41" s="510"/>
+      <c r="N41" s="510"/>
+      <c r="O41" s="510"/>
+      <c r="P41" s="510"/>
+    </row>
+    <row r="42" spans="4:19">
+      <c r="D42" s="510"/>
+      <c r="E42" s="510"/>
+      <c r="F42" s="510"/>
+      <c r="G42" s="510"/>
+      <c r="H42" s="510"/>
+      <c r="I42" s="510"/>
+      <c r="J42" s="510"/>
+      <c r="K42" s="510"/>
+      <c r="L42" s="510"/>
+      <c r="M42" s="510"/>
+      <c r="N42" s="510"/>
+      <c r="O42" s="510"/>
+      <c r="P42" s="510"/>
+    </row>
+    <row r="43" spans="4:19">
+      <c r="D43" t="s">
         <v>298</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>299</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="46" spans="3:18">
-      <c r="C46" t="s">
+    <row r="46" spans="4:19">
+      <c r="D46" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="47" spans="3:18">
-      <c r="C47" t="s">
+    <row r="47" spans="4:19">
+      <c r="D47" t="s">
         <v>302</v>
       </c>
     </row>
@@ -10512,16 +10546,16 @@
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="C38:O42"/>
-    <mergeCell ref="O2:P3"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C31:O32"/>
-    <mergeCell ref="C34:R35"/>
-    <mergeCell ref="C36:O37"/>
+    <mergeCell ref="D38:P42"/>
+    <mergeCell ref="P2:Q3"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D31:P32"/>
+    <mergeCell ref="D34:S35"/>
+    <mergeCell ref="D36:P37"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A51" r:id="rId1" display="https://acsess.onlinelibrary.wiley.com/doi/full/10.1002/jeq2.20345" xr:uid="{C45D33C2-0FE5-634B-876D-B64190ED8B1E}"/>
-    <hyperlink ref="O2:P3" location="'Instructions &amp; summary data'!A1" display="Return to instructions page" xr:uid="{05FE0311-4A06-F34B-955F-494EEF9BA403}"/>
+    <hyperlink ref="P2:Q3" location="'Instructions &amp; summary data'!A1" display="Return to instructions page" xr:uid="{05FE0311-4A06-F34B-955F-494EEF9BA403}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10531,7 +10565,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{316A2D6F-29E8-3942-9920-D3DC4686C945}">
   <dimension ref="B3:N25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="M3" sqref="M3:N4"/>
     </sheetView>
   </sheetViews>
@@ -10554,7 +10588,7 @@
       <c r="N4" s="487"/>
     </row>
     <row r="6" spans="2:14">
-      <c r="B6" s="511" t="s">
+      <c r="B6" s="510" t="s">
         <v>419</v>
       </c>
       <c r="C6" s="512"/>
@@ -11442,7 +11476,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CED82474-8789-BB42-928B-E8FB974E4A18}">
   <dimension ref="O2:P3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="O2" sqref="O2:P3"/>
     </sheetView>
   </sheetViews>
@@ -13686,7 +13720,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95E4A553-5A20-544F-981B-7A427BC0DBF5}">
   <dimension ref="A1:M83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="L6" sqref="L6:M7"/>
     </sheetView>
   </sheetViews>
@@ -15265,7 +15299,7 @@
     <row r="76" spans="1:10">
       <c r="A76" s="86">
         <f ca="1">TODAY()</f>
-        <v>45705</v>
+        <v>45708</v>
       </c>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -15323,7 +15357,7 @@
   <dimension ref="A1:M153"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6:M7"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -16925,7 +16959,7 @@
     <row r="77" spans="1:10">
       <c r="A77" s="86">
         <f ca="1">TODAY()</f>
-        <v>45705</v>
+        <v>45708</v>
       </c>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -19373,11 +19407,11 @@
       </c>
     </row>
     <row r="70" spans="1:11" ht="48" customHeight="1">
-      <c r="A70" s="491" t="s">
+      <c r="A70" s="489" t="s">
         <v>312</v>
       </c>
-      <c r="B70" s="491"/>
-      <c r="C70" s="491"/>
+      <c r="B70" s="489"/>
+      <c r="C70" s="489"/>
       <c r="D70" s="240"/>
       <c r="E70" s="241"/>
       <c r="F70" s="241"/>
@@ -19398,11 +19432,11 @@
       <c r="F71" s="246" t="s">
         <v>27</v>
       </c>
-      <c r="G71" s="492" t="s">
+      <c r="G71" s="490" t="s">
         <v>77</v>
       </c>
-      <c r="H71" s="492"/>
-      <c r="I71" s="492"/>
+      <c r="H71" s="490"/>
+      <c r="I71" s="490"/>
     </row>
     <row r="72" spans="1:11" ht="35.1" customHeight="1">
       <c r="A72" s="235" t="s">
@@ -19424,11 +19458,11 @@
       <c r="F72" s="239" t="s">
         <v>306</v>
       </c>
-      <c r="G72" s="490" t="s">
+      <c r="G72" s="492" t="s">
         <v>307</v>
       </c>
-      <c r="H72" s="490"/>
-      <c r="I72" s="490"/>
+      <c r="H72" s="492"/>
+      <c r="I72" s="492"/>
     </row>
     <row r="73" spans="1:11" ht="45" customHeight="1">
       <c r="A73" s="235" t="s">
@@ -19449,11 +19483,11 @@
       <c r="F73" s="239" t="s">
         <v>306</v>
       </c>
-      <c r="G73" s="490" t="s">
+      <c r="G73" s="492" t="s">
         <v>309</v>
       </c>
-      <c r="H73" s="490"/>
-      <c r="I73" s="490"/>
+      <c r="H73" s="492"/>
+      <c r="I73" s="492"/>
     </row>
     <row r="74" spans="1:11" ht="74.099999999999994" customHeight="1">
       <c r="A74" s="247" t="s">
@@ -19472,11 +19506,11 @@
       <c r="F74" s="250" t="s">
         <v>306</v>
       </c>
-      <c r="G74" s="489" t="s">
+      <c r="G74" s="491" t="s">
         <v>311</v>
       </c>
-      <c r="H74" s="489"/>
-      <c r="I74" s="489"/>
+      <c r="H74" s="491"/>
+      <c r="I74" s="491"/>
     </row>
     <row r="75" spans="1:11">
       <c r="E75" s="169">
@@ -19653,7 +19687,7 @@
     <row r="101" spans="1:11">
       <c r="A101" s="86">
         <f ca="1">TODAY()</f>
-        <v>45705</v>
+        <v>45708</v>
       </c>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -21268,7 +21302,7 @@
     <row r="73" spans="1:11">
       <c r="A73" s="86">
         <f ca="1">TODAY()</f>
-        <v>45705</v>
+        <v>45708</v>
       </c>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -21366,7 +21400,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCE185D2-4508-AB43-8469-AEFED875E4CE}">
   <dimension ref="A1:O91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="L6" sqref="L6:M7"/>
     </sheetView>
   </sheetViews>
@@ -22807,11 +22841,11 @@
       <c r="F66" s="246" t="s">
         <v>27</v>
       </c>
-      <c r="G66" s="492" t="s">
+      <c r="G66" s="490" t="s">
         <v>77</v>
       </c>
-      <c r="H66" s="492"/>
-      <c r="I66" s="492"/>
+      <c r="H66" s="490"/>
+      <c r="I66" s="490"/>
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="235" t="s">
@@ -22833,11 +22867,11 @@
       <c r="F67" s="239" t="s">
         <v>306</v>
       </c>
-      <c r="G67" s="490" t="s">
+      <c r="G67" s="492" t="s">
         <v>307</v>
       </c>
-      <c r="H67" s="490"/>
-      <c r="I67" s="490"/>
+      <c r="H67" s="492"/>
+      <c r="I67" s="492"/>
     </row>
     <row r="68" spans="1:11" ht="41.1" customHeight="1">
       <c r="A68" s="235" t="s">
@@ -22858,11 +22892,11 @@
       <c r="F68" s="239" t="s">
         <v>306</v>
       </c>
-      <c r="G68" s="490" t="s">
+      <c r="G68" s="492" t="s">
         <v>309</v>
       </c>
-      <c r="H68" s="490"/>
-      <c r="I68" s="490"/>
+      <c r="H68" s="492"/>
+      <c r="I68" s="492"/>
     </row>
     <row r="69" spans="1:11" ht="81" customHeight="1">
       <c r="A69" s="247" t="s">
@@ -22881,11 +22915,11 @@
       <c r="F69" s="250" t="s">
         <v>306</v>
       </c>
-      <c r="G69" s="489" t="s">
+      <c r="G69" s="491" t="s">
         <v>311</v>
       </c>
-      <c r="H69" s="489"/>
-      <c r="I69" s="489"/>
+      <c r="H69" s="491"/>
+      <c r="I69" s="491"/>
     </row>
     <row r="70" spans="1:11">
       <c r="E70" s="169">
@@ -23047,7 +23081,7 @@
     <row r="88" spans="1:11">
       <c r="A88" s="86">
         <f ca="1">TODAY()</f>
-        <v>45705</v>
+        <v>45708</v>
       </c>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -26029,7 +26063,7 @@
     <row r="133" spans="1:11">
       <c r="A133" s="86">
         <f ca="1">TODAY()</f>
-        <v>45705</v>
+        <v>45708</v>
       </c>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -26089,8 +26123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1811BFB6-13E6-734C-8B47-C560968C2226}">
   <dimension ref="A1:O138"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L6" sqref="L6:M7"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -28992,7 +29026,7 @@
     <row r="133" spans="1:11">
       <c r="A133" s="86">
         <f ca="1">TODAY()</f>
-        <v>45705</v>
+        <v>45708</v>
       </c>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
